--- a/UI_AUtomation_Selenium/src/TestData/TestData.xlsxTestData.xlsx
+++ b/UI_AUtomation_Selenium/src/TestData/TestData.xlsxTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>URL</t>
   </si>
@@ -40,9 +40,6 @@
     <t>anuj.indiait@gmail.com</t>
   </si>
   <si>
-    <t>Anuj007!</t>
-  </si>
-  <si>
     <t>Search Product Series</t>
   </si>
   <si>
@@ -130,14 +127,19 @@
     <t>Example“Laserjet P1102w driver” or “HP Pavilion 17-f002na will not turn on”</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,44 +165,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -237,14 +239,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -552,23 +554,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -583,13 +585,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -600,143 +602,143 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s" s="4">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s" s="5">
+      <c r="G6" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s" s="6">
+      <c r="G7" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s" s="8">
+      <c r="G9" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s" s="9">
+        <v>29</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>38</v>
       </c>
     </row>

--- a/UI_AUtomation_Selenium/src/TestData/TestData.xlsxTestData.xlsx
+++ b/UI_AUtomation_Selenium/src/TestData/TestData.xlsxTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>URL</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Login Test Case</t>
   </si>
   <si>
-    <t>anuj.indiait@gmail.com</t>
-  </si>
-  <si>
     <t>Search Product Series</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>anuj.kumar.sharma@hp.com</t>
   </si>
   <si>
-    <t>cat.bat-06</t>
-  </si>
-  <si>
     <t>SKU Search</t>
   </si>
   <si>
@@ -127,13 +121,13 @@
     <t>Example“Laserjet P1102w driver” or “HP Pavilion 17-f002na will not turn on”</t>
   </si>
   <si>
-    <t>Failed</t>
+    <t>sdasd</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
   </si>
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -166,7 +160,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -555,7 +549,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +564,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -585,13 +579,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -599,55 +593,52 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>37</v>
@@ -655,91 +646,91 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
